--- a/results/mp/deberta/corona/confidence/42/stop-words-topk-0.2/avg_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/42/stop-words-topk-0.2/avg_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="1001">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="1001">
   <si>
     <t>anchor score</t>
   </si>
@@ -325,598 +325,598 @@
     <t>avoid</t>
   </si>
   <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>expert</t>
+  </si>
+  <si>
+    <t>dedicated</t>
+  </si>
+  <si>
+    <t>struggling</t>
+  </si>
+  <si>
+    <t>complaint</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>loss</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>electricity</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>stuck</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>entire</t>
+  </si>
+  <si>
+    <t>options</t>
+  </si>
+  <si>
+    <t>scared</t>
+  </si>
+  <si>
+    <t>avoiding</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>blame</t>
+  </si>
+  <si>
+    <t>feels</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>digital</t>
+  </si>
+  <si>
+    <t>complaints</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>symptoms</t>
+  </si>
+  <si>
+    <t>affected</t>
+  </si>
+  <si>
+    <t>combat</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>mortgage</t>
+  </si>
+  <si>
+    <t>worried</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>inflated</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>worry</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>lost</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>finally</t>
+  </si>
+  <si>
+    <t>experience</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>caused</t>
+  </si>
+  <si>
+    <t>la</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>provide</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>act</t>
+  </si>
+  <si>
+    <t>tests</t>
+  </si>
+  <si>
+    <t>customer</t>
+  </si>
+  <si>
+    <t>especially</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>epidemic</t>
+  </si>
+  <si>
+    <t>cancelled</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>insights</t>
+  </si>
+  <si>
+    <t>countries</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>putting</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>show</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>self</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>call</t>
+  </si>
+  <si>
+    <t>retailers</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>protection</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>everything</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>banks</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>gloves</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>around</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>companies</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>outbreak</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>dona</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>trump</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>gas</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>ho</t>
+  </si>
+  <si>
+    <t>still</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>lock</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>buying</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>expert</t>
-  </si>
-  <si>
-    <t>dedicated</t>
-  </si>
-  <si>
-    <t>struggling</t>
-  </si>
-  <si>
-    <t>complaint</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>loss</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>electricity</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>stuck</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>entire</t>
-  </si>
-  <si>
-    <t>options</t>
-  </si>
-  <si>
-    <t>scared</t>
-  </si>
-  <si>
-    <t>avoiding</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>strong</t>
   </si>
   <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>blame</t>
-  </si>
-  <si>
-    <t>feels</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>digital</t>
-  </si>
-  <si>
-    <t>complaints</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>symptoms</t>
-  </si>
-  <si>
-    <t>affected</t>
-  </si>
-  <si>
-    <t>combat</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>mortgage</t>
-  </si>
-  <si>
-    <t>worried</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>inflated</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>worry</t>
-  </si>
-  <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>lost</t>
-  </si>
-  <si>
-    <t>power</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>finally</t>
-  </si>
-  <si>
-    <t>experience</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>caused</t>
-  </si>
-  <si>
-    <t>la</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>provide</t>
-  </si>
-  <si>
-    <t>gold</t>
-  </si>
-  <si>
-    <t>act</t>
-  </si>
-  <si>
-    <t>tests</t>
-  </si>
-  <si>
-    <t>customer</t>
-  </si>
-  <si>
-    <t>especially</t>
-  </si>
-  <si>
-    <t>q</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>epidemic</t>
-  </si>
-  <si>
-    <t>cancelled</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>insights</t>
-  </si>
-  <si>
-    <t>countries</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>bit</t>
-  </si>
-  <si>
-    <t>shift</t>
-  </si>
-  <si>
-    <t>putting</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>show</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
-    <t>self</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>call</t>
-  </si>
-  <si>
-    <t>retailers</t>
-  </si>
-  <si>
-    <t>financial</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>protection</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>everything</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>banks</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>gloves</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>around</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>companies</t>
-  </si>
-  <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>outbreak</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>dona</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>trump</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>gas</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>ho</t>
-  </si>
-  <si>
-    <t>still</t>
-  </si>
-  <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>lock</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>buying</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>demand</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>strong</t>
   </si>
   <si>
     <t>creative</t>
@@ -3385,7 +3385,7 @@
         <v>53</v>
       </c>
       <c r="J1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K4">
         <v>0.9166666666666666</v>
@@ -3564,7 +3564,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K5">
         <v>0.8983050847457628</v>
@@ -3714,7 +3714,7 @@
         <v>2</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K8">
         <v>0.8461538461538461</v>
@@ -3814,7 +3814,7 @@
         <v>4</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K10">
         <v>0.8110236220472441</v>
@@ -3914,7 +3914,7 @@
         <v>13</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K12">
         <v>0.759493670886076</v>
@@ -4014,7 +4014,7 @@
         <v>18</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K14">
         <v>0.7301587301587301</v>
@@ -4064,7 +4064,7 @@
         <v>3</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K15">
         <v>0.7192982456140351</v>
@@ -4114,28 +4114,28 @@
         <v>152</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="K16">
-        <v>0.6695652173913044</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L16">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="M16">
-        <v>163</v>
+        <v>13</v>
       </c>
       <c r="N16">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="O16">
-        <v>0.06000000000000005</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P16" t="b">
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>76</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -4164,28 +4164,28 @@
         <v>6</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K17">
-        <v>0.6666666666666666</v>
+        <v>0.6534653465346535</v>
       </c>
       <c r="L17">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="M17">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="N17">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="O17">
-        <v>0.07999999999999996</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P17" t="b">
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -4214,28 +4214,28 @@
         <v>5</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="K18">
-        <v>0.6534653465346535</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="L18">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="M18">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="N18">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O18">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P18" t="b">
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -4264,28 +4264,28 @@
         <v>7</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>99</v>
+        <v>295</v>
       </c>
       <c r="K19">
-        <v>0.6521739130434783</v>
+        <v>0.6443514644351465</v>
       </c>
       <c r="L19">
-        <v>30</v>
+        <v>154</v>
       </c>
       <c r="M19">
-        <v>32</v>
+        <v>154</v>
       </c>
       <c r="N19">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -4314,7 +4314,7 @@
         <v>9</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K20">
         <v>0.6382978723404256</v>
@@ -4364,7 +4364,7 @@
         <v>10</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K21">
         <v>0.624113475177305</v>
@@ -4414,7 +4414,7 @@
         <v>6</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K22">
         <v>0.6111111111111112</v>
@@ -4514,7 +4514,7 @@
         <v>4</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K24">
         <v>0.5714285714285714</v>
@@ -4564,7 +4564,7 @@
         <v>4</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K25">
         <v>0.5555555555555556</v>
@@ -4614,7 +4614,7 @@
         <v>13</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K26">
         <v>0.5454545454545454</v>
@@ -4664,28 +4664,28 @@
         <v>9</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="K27">
-        <v>0.5365853658536586</v>
+        <v>0.52</v>
       </c>
       <c r="L27">
-        <v>176</v>
+        <v>13</v>
       </c>
       <c r="M27">
-        <v>188</v>
+        <v>15</v>
       </c>
       <c r="N27">
-        <v>0.9399999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="O27">
-        <v>0.06000000000000005</v>
+        <v>0.13</v>
       </c>
       <c r="P27" t="b">
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>152</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -4714,28 +4714,28 @@
         <v>5</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>77</v>
+        <v>300</v>
       </c>
       <c r="K28">
-        <v>0.52</v>
+        <v>0.5176470588235295</v>
       </c>
       <c r="L28">
-        <v>13</v>
+        <v>176</v>
       </c>
       <c r="M28">
-        <v>15</v>
+        <v>176</v>
       </c>
       <c r="N28">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>12</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -4764,7 +4764,7 @@
         <v>5</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K29">
         <v>0.515625</v>
@@ -4814,7 +4814,7 @@
         <v>5</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K30">
         <v>0.5147058823529411</v>
@@ -5164,7 +5164,7 @@
         <v>6</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K37">
         <v>0.4498269896193772</v>
@@ -5314,7 +5314,7 @@
         <v>3</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K40">
         <v>0.4411764705882353</v>
@@ -5364,7 +5364,7 @@
         <v>6</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K41">
         <v>0.4251968503937008</v>
@@ -5514,7 +5514,7 @@
         <v>7</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K44">
         <v>0.3888888888888889</v>
@@ -5664,7 +5664,7 @@
         <v>13</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K47">
         <v>0.3703703703703703</v>
@@ -6014,7 +6014,7 @@
         <v>5</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K54">
         <v>0.3333333333333333</v>
@@ -6264,7 +6264,7 @@
         <v>5</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K59">
         <v>0.3181818181818182</v>
@@ -6514,7 +6514,7 @@
         <v>16</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K64">
         <v>0.2916666666666667</v>
@@ -6564,7 +6564,7 @@
         <v>16</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K65">
         <v>0.2857142857142857</v>
@@ -6614,7 +6614,7 @@
         <v>43</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K66">
         <v>0.2857142857142857</v>
@@ -7264,7 +7264,7 @@
         <v>32</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K79">
         <v>0.2666666666666667</v>
@@ -7414,7 +7414,7 @@
         <v>13</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K82">
         <v>0.2619047619047619</v>
@@ -7614,7 +7614,7 @@
         <v>7</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K86">
         <v>0.25</v>
@@ -8193,28 +8193,28 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1058823529411765</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="C98">
+        <v>2</v>
+      </c>
+      <c r="D98">
         <v>9</v>
       </c>
-      <c r="D98">
-        <v>163</v>
-      </c>
       <c r="E98">
-        <v>0.9399999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="F98">
-        <v>0.06000000000000005</v>
+        <v>0.22</v>
       </c>
       <c r="G98" t="b">
         <v>1</v>
       </c>
       <c r="H98">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K98">
         <v>0.2424242424242424</v>
@@ -8243,25 +8243,25 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.1052631578947368</v>
+        <v>0.1025641025641026</v>
       </c>
       <c r="C99">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D99">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="E99">
-        <v>0.78</v>
+        <v>0.93</v>
       </c>
       <c r="F99">
-        <v>0.22</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G99" t="b">
         <v>1</v>
       </c>
       <c r="H99">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="J99" s="1" t="s">
         <v>354</v>
@@ -8293,25 +8293,25 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.1025641025641026</v>
+        <v>0.1</v>
       </c>
       <c r="C100">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D100">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="E100">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F100">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="J100" s="1" t="s">
         <v>355</v>
@@ -8396,10 +8396,10 @@
         <v>0.1</v>
       </c>
       <c r="C102">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D102">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="H102">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="J102" s="1" t="s">
         <v>357</v>
@@ -8446,10 +8446,10 @@
         <v>0.1</v>
       </c>
       <c r="C103">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D103">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E103">
         <v>0</v>
@@ -8461,7 +8461,7 @@
         <v>0</v>
       </c>
       <c r="H103">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="J103" s="1" t="s">
         <v>358</v>
@@ -8493,13 +8493,13 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.1</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="C104">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D104">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -8511,7 +8511,7 @@
         <v>0</v>
       </c>
       <c r="H104">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="J104" s="1" t="s">
         <v>359</v>
@@ -8543,28 +8543,28 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.09677419354838709</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="C105">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D105">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="F105">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="G105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H105">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K105">
         <v>0.2300242130750605</v>
@@ -8593,25 +8593,25 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.09523809523809523</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C106">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D106">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E106">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F106">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H106">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="J106" s="1" t="s">
         <v>360</v>
@@ -8646,10 +8646,10 @@
         <v>0.09090909090909091</v>
       </c>
       <c r="C107">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D107">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E107">
         <v>0</v>
@@ -8661,7 +8661,7 @@
         <v>0</v>
       </c>
       <c r="H107">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="J107" s="1" t="s">
         <v>361</v>
@@ -8699,16 +8699,16 @@
         <v>1</v>
       </c>
       <c r="D108">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F108">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H108">
         <v>10</v>
@@ -8749,16 +8749,16 @@
         <v>1</v>
       </c>
       <c r="D109">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E109">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F109">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H109">
         <v>10</v>
@@ -8849,16 +8849,16 @@
         <v>1</v>
       </c>
       <c r="D111">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F111">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H111">
         <v>10</v>
@@ -8893,25 +8893,25 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.09090909090909091</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C112">
         <v>1</v>
       </c>
       <c r="D112">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E112">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F112">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H112">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J112" s="1" t="s">
         <v>366</v>
@@ -8949,16 +8949,16 @@
         <v>1</v>
       </c>
       <c r="D113">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="F113">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="G113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H113">
         <v>11</v>
@@ -8999,16 +8999,16 @@
         <v>1</v>
       </c>
       <c r="D114">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E114">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F114">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H114">
         <v>11</v>
@@ -9049,16 +9049,16 @@
         <v>1</v>
       </c>
       <c r="D115">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F115">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H115">
         <v>11</v>
@@ -9099,16 +9099,16 @@
         <v>1</v>
       </c>
       <c r="D116">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E116">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F116">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H116">
         <v>11</v>
@@ -9143,7 +9143,7 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.08333333333333333</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -9161,10 +9161,10 @@
         <v>0</v>
       </c>
       <c r="H117">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K117">
         <v>0.2222222222222222</v>
@@ -9196,10 +9196,10 @@
         <v>0.07692307692307693</v>
       </c>
       <c r="C118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E118">
         <v>0</v>
@@ -9211,7 +9211,7 @@
         <v>0</v>
       </c>
       <c r="H118">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="J118" s="1" t="s">
         <v>371</v>
@@ -9243,13 +9243,13 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.07692307692307693</v>
+        <v>0.075</v>
       </c>
       <c r="C119">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D119">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E119">
         <v>0</v>
@@ -9261,7 +9261,7 @@
         <v>0</v>
       </c>
       <c r="H119">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="J119" s="1" t="s">
         <v>372</v>
@@ -9293,13 +9293,13 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.075</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C120">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D120">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E120">
         <v>0</v>
@@ -9311,7 +9311,7 @@
         <v>0</v>
       </c>
       <c r="H120">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="J120" s="1" t="s">
         <v>373</v>
@@ -9343,25 +9343,25 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.07317073170731707</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C121">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D121">
-        <v>188</v>
+        <v>1</v>
       </c>
       <c r="E121">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F121">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H121">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="J121" s="1" t="s">
         <v>374</v>
@@ -9396,22 +9396,22 @@
         <v>0.07142857142857142</v>
       </c>
       <c r="C122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D122">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="F122">
-        <v>1</v>
+        <v>0.29</v>
       </c>
       <c r="G122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H122">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="J122" s="1" t="s">
         <v>375</v>
@@ -9449,16 +9449,16 @@
         <v>1</v>
       </c>
       <c r="D123">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F123">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H123">
         <v>13</v>
@@ -9496,25 +9496,25 @@
         <v>0.07142857142857142</v>
       </c>
       <c r="C124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D124">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E124">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="F124">
-        <v>0.29</v>
+        <v>1</v>
       </c>
       <c r="G124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H124">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K124">
         <v>0.2173913043478261</v>
@@ -9543,25 +9543,25 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C125">
         <v>1</v>
       </c>
       <c r="D125">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E125">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F125">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H125">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>377</v>
@@ -9593,25 +9593,25 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C126">
         <v>1</v>
       </c>
       <c r="D126">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F126">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H126">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J126" s="1" t="s">
         <v>378</v>
@@ -9664,7 +9664,7 @@
         <v>14</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K127">
         <v>0.2142857142857143</v>
@@ -9693,25 +9693,25 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.06666666666666667</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="C128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D128">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E128">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F128">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G128" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H128">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>379</v>
@@ -9743,7 +9743,7 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.06666666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -9761,7 +9761,7 @@
         <v>0</v>
       </c>
       <c r="H129">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>380</v>
@@ -9793,13 +9793,13 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.06451612903225806</v>
+        <v>0.0625</v>
       </c>
       <c r="C130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E130">
         <v>0</v>
@@ -9811,7 +9811,7 @@
         <v>0</v>
       </c>
       <c r="H130">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>381</v>
@@ -9846,10 +9846,10 @@
         <v>0.0625</v>
       </c>
       <c r="C131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E131">
         <v>0</v>
@@ -9861,7 +9861,7 @@
         <v>0</v>
       </c>
       <c r="H131">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>382</v>
@@ -9893,7 +9893,7 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -9911,7 +9911,7 @@
         <v>0</v>
       </c>
       <c r="H132">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>383</v>
@@ -9943,28 +9943,28 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D133">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F133">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H133">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K133">
         <v>0.2077922077922078</v>
@@ -9999,16 +9999,16 @@
         <v>1</v>
       </c>
       <c r="D134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F134">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H134">
         <v>16</v>
@@ -10049,16 +10049,16 @@
         <v>1</v>
       </c>
       <c r="D135">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="E135">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F135">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H135">
         <v>16</v>
@@ -10096,22 +10096,22 @@
         <v>0.05882352941176471</v>
       </c>
       <c r="C136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D136">
         <v>2</v>
       </c>
       <c r="E136">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F136">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H136">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="J136" s="1" t="s">
         <v>386</v>
@@ -10143,25 +10143,25 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.05882352941176471</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="C137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D137">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F137">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H137">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>387</v>
@@ -10193,13 +10193,13 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E138">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="H138">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>388</v>
@@ -10243,25 +10243,25 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.05714285714285714</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D139">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E139">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="F139">
-        <v>0.05000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G139" t="b">
         <v>1</v>
       </c>
       <c r="H139">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="J139" s="1" t="s">
         <v>389</v>
@@ -10343,25 +10343,25 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C141">
         <v>1</v>
       </c>
       <c r="D141">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E141">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="F141">
-        <v>0.08999999999999997</v>
+        <v>0.17</v>
       </c>
       <c r="G141" t="b">
         <v>1</v>
       </c>
       <c r="H141">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>50</v>
@@ -10393,13 +10393,13 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.05555555555555555</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="C142">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D142">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E142">
         <v>0</v>
@@ -10411,7 +10411,7 @@
         <v>0</v>
       </c>
       <c r="H142">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>391</v>
@@ -10443,25 +10443,25 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.05263157894736842</v>
+        <v>0.05</v>
       </c>
       <c r="C143">
         <v>1</v>
       </c>
       <c r="D143">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E143">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F143">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G143" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H143">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>392</v>
@@ -10493,25 +10493,25 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.05128205128205128</v>
+        <v>0.05</v>
       </c>
       <c r="C144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D144">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E144">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F144">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H144">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>393</v>
@@ -10546,25 +10546,25 @@
         <v>0.05</v>
       </c>
       <c r="C145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D145">
-        <v>1</v>
+        <v>122</v>
       </c>
       <c r="E145">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F145">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H145">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K145">
         <v>0.1962025316455696</v>
@@ -10599,13 +10599,13 @@
         <v>1</v>
       </c>
       <c r="D146">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E146">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="F146">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="G146" t="b">
         <v>1</v>
@@ -10646,22 +10646,22 @@
         <v>0.05</v>
       </c>
       <c r="C147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D147">
-        <v>122</v>
+        <v>3</v>
       </c>
       <c r="E147">
-        <v>0.98</v>
+        <v>0.67</v>
       </c>
       <c r="F147">
-        <v>0.02000000000000002</v>
+        <v>0.33</v>
       </c>
       <c r="G147" t="b">
         <v>1</v>
       </c>
       <c r="H147">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>395</v>
@@ -10693,25 +10693,25 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C148">
         <v>1</v>
       </c>
       <c r="D148">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E148">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="F148">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="G148" t="b">
         <v>1</v>
       </c>
       <c r="H148">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>396</v>
@@ -10743,25 +10743,25 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.05</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C149">
         <v>1</v>
       </c>
       <c r="D149">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E149">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F149">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H149">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>397</v>
@@ -10793,25 +10793,25 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.04761904761904762</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C150">
         <v>1</v>
       </c>
       <c r="D150">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E150">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F150">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H150">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>398</v>
@@ -10899,22 +10899,22 @@
         <v>1</v>
       </c>
       <c r="D152">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F152">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H152">
         <v>22</v>
       </c>
       <c r="J152" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K152">
         <v>0.1875</v>
@@ -10949,16 +10949,16 @@
         <v>1</v>
       </c>
       <c r="D153">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F153">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H153">
         <v>22</v>
@@ -10999,13 +10999,13 @@
         <v>1</v>
       </c>
       <c r="D154">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E154">
-        <v>0.5</v>
+        <v>0.89</v>
       </c>
       <c r="F154">
-        <v>0.5</v>
+        <v>0.11</v>
       </c>
       <c r="G154" t="b">
         <v>1</v>
@@ -11014,7 +11014,7 @@
         <v>22</v>
       </c>
       <c r="J154" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K154">
         <v>0.1847133757961783</v>
@@ -11049,16 +11049,16 @@
         <v>1</v>
       </c>
       <c r="D155">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E155">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F155">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H155">
         <v>22</v>
@@ -11093,25 +11093,25 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.04347826086956522</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C156">
         <v>1</v>
       </c>
       <c r="D156">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E156">
-        <v>0.89</v>
+        <v>0.67</v>
       </c>
       <c r="F156">
-        <v>0.11</v>
+        <v>0.33</v>
       </c>
       <c r="G156" t="b">
         <v>1</v>
       </c>
       <c r="H156">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>402</v>
@@ -11143,25 +11143,25 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.04347826086956522</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C157">
         <v>1</v>
       </c>
       <c r="D157">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F157">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H157">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>403</v>
@@ -11199,16 +11199,16 @@
         <v>1</v>
       </c>
       <c r="D158">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E158">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F158">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G158" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H158">
         <v>23</v>
@@ -11243,25 +11243,25 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.04166666666666666</v>
+        <v>0.04</v>
       </c>
       <c r="C159">
         <v>1</v>
       </c>
       <c r="D159">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E159">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F159">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G159" t="b">
         <v>1</v>
       </c>
       <c r="H159">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>405</v>
@@ -11293,25 +11293,25 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.04166666666666666</v>
+        <v>0.04</v>
       </c>
       <c r="C160">
         <v>1</v>
       </c>
       <c r="D160">
-        <v>1</v>
+        <v>104</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="F160">
-        <v>1</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H160">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>406</v>
@@ -11349,16 +11349,16 @@
         <v>1</v>
       </c>
       <c r="D161">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E161">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F161">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H161">
         <v>24</v>
@@ -11393,25 +11393,25 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.04</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C162">
         <v>1</v>
       </c>
       <c r="D162">
-        <v>104</v>
+        <v>1</v>
       </c>
       <c r="E162">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="F162">
-        <v>0.01000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H162">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>408</v>
@@ -11443,25 +11443,25 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.04</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C163">
         <v>1</v>
       </c>
       <c r="D163">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E163">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F163">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H163">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>409</v>
@@ -11499,16 +11499,16 @@
         <v>1</v>
       </c>
       <c r="D164">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E164">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="F164">
-        <v>1</v>
+        <v>0.11</v>
       </c>
       <c r="G164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H164">
         <v>25</v>
@@ -11543,28 +11543,28 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.03846153846153846</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C165">
         <v>1</v>
       </c>
       <c r="D165">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E165">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F165">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H165">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J165" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K165">
         <v>0.1769230769230769</v>
@@ -11593,25 +11593,25 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.03846153846153846</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C166">
         <v>1</v>
       </c>
       <c r="D166">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E166">
-        <v>0.89</v>
+        <v>0.67</v>
       </c>
       <c r="F166">
-        <v>0.11</v>
+        <v>0.33</v>
       </c>
       <c r="G166" t="b">
         <v>1</v>
       </c>
       <c r="H166">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>411</v>
@@ -11649,16 +11649,16 @@
         <v>1</v>
       </c>
       <c r="D167">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F167">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H167">
         <v>26</v>
@@ -11696,25 +11696,25 @@
         <v>0.03703703703703703</v>
       </c>
       <c r="C168">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D168">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E168">
-        <v>0.67</v>
+        <v>0.82</v>
       </c>
       <c r="F168">
-        <v>0.33</v>
+        <v>0.18</v>
       </c>
       <c r="G168" t="b">
         <v>1</v>
       </c>
       <c r="H168">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="J168" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K168">
         <v>0.1739130434782609</v>
@@ -11743,28 +11743,28 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.03703703703703703</v>
+        <v>0.03636363636363636</v>
       </c>
       <c r="C169">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D169">
-        <v>2</v>
+        <v>136</v>
       </c>
       <c r="E169">
-        <v>0.5</v>
+        <v>0.96</v>
       </c>
       <c r="F169">
-        <v>0.5</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G169" t="b">
         <v>1</v>
       </c>
       <c r="H169">
-        <v>26</v>
+        <v>159</v>
       </c>
       <c r="J169" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K169">
         <v>0.1739130434782609</v>
@@ -11793,13 +11793,13 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.03703703703703703</v>
+        <v>0.03614457831325301</v>
       </c>
       <c r="C170">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D170">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E170">
         <v>0.82</v>
@@ -11811,7 +11811,7 @@
         <v>1</v>
       </c>
       <c r="H170">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>413</v>
@@ -11843,25 +11843,25 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.03636363636363636</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C171">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D171">
-        <v>136</v>
+        <v>1</v>
       </c>
       <c r="E171">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F171">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H171">
-        <v>159</v>
+        <v>27</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>414</v>
@@ -11893,28 +11893,28 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.03614457831325301</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C172">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D172">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="E172">
-        <v>0.82</v>
+        <v>0.5</v>
       </c>
       <c r="F172">
-        <v>0.18</v>
+        <v>0.5</v>
       </c>
       <c r="G172" t="b">
         <v>1</v>
       </c>
       <c r="H172">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="J172" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K172">
         <v>0.1707317073170732</v>
@@ -11993,28 +11993,28 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.03571428571428571</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C174">
         <v>1</v>
       </c>
       <c r="D174">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E174">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F174">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G174" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H174">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J174" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K174">
         <v>0.1690140845070423</v>
@@ -12043,7 +12043,7 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.03571428571428571</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C175">
         <v>1</v>
@@ -12061,7 +12061,7 @@
         <v>0</v>
       </c>
       <c r="H175">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>416</v>
@@ -12143,7 +12143,7 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.03448275862068965</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="C177">
         <v>1</v>
@@ -12161,7 +12161,7 @@
         <v>0</v>
       </c>
       <c r="H177">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>418</v>
@@ -12193,28 +12193,28 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.03448275862068965</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="C178">
         <v>1</v>
       </c>
       <c r="D178">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E178">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F178">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H178">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J178" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K178">
         <v>0.1666666666666667</v>
@@ -12249,16 +12249,16 @@
         <v>1</v>
       </c>
       <c r="D179">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E179">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F179">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G179" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H179">
         <v>29</v>
@@ -12293,25 +12293,25 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.03333333333333333</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C180">
         <v>1</v>
       </c>
       <c r="D180">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E180">
-        <v>0.5</v>
+        <v>0.93</v>
       </c>
       <c r="F180">
-        <v>0.5</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G180" t="b">
         <v>1</v>
       </c>
       <c r="H180">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>420</v>
@@ -12343,25 +12343,25 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.03333333333333333</v>
+        <v>0.03125</v>
       </c>
       <c r="C181">
         <v>1</v>
       </c>
       <c r="D181">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E181">
-        <v>0.67</v>
+        <v>0.92</v>
       </c>
       <c r="F181">
-        <v>0.33</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G181" t="b">
         <v>1</v>
       </c>
       <c r="H181">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>421</v>
@@ -12393,25 +12393,25 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.03225806451612903</v>
+        <v>0.03125</v>
       </c>
       <c r="C182">
         <v>1</v>
       </c>
       <c r="D182">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="E182">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="F182">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G182" t="b">
         <v>1</v>
       </c>
       <c r="H182">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>422</v>
@@ -12443,25 +12443,25 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.03125</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C183">
         <v>1</v>
       </c>
       <c r="D183">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E183">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="F183">
-        <v>0.07999999999999996</v>
+        <v>0.12</v>
       </c>
       <c r="G183" t="b">
         <v>1</v>
       </c>
       <c r="H183">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>423</v>
@@ -12493,25 +12493,25 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.03125</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C184">
         <v>1</v>
       </c>
       <c r="D184">
+        <v>5</v>
+      </c>
+      <c r="E184">
+        <v>0.8</v>
+      </c>
+      <c r="F184">
+        <v>0.2</v>
+      </c>
+      <c r="G184" t="b">
+        <v>1</v>
+      </c>
+      <c r="H184">
         <v>34</v>
-      </c>
-      <c r="E184">
-        <v>0.97</v>
-      </c>
-      <c r="F184">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="G184" t="b">
-        <v>1</v>
-      </c>
-      <c r="H184">
-        <v>31</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>424</v>
@@ -12549,16 +12549,16 @@
         <v>1</v>
       </c>
       <c r="D185">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E185">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F185">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G185" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H185">
         <v>34</v>
@@ -12599,16 +12599,16 @@
         <v>1</v>
       </c>
       <c r="D186">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E186">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F186">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G186" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H186">
         <v>34</v>
@@ -12643,13 +12643,13 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.02857142857142857</v>
+        <v>0.02684563758389262</v>
       </c>
       <c r="C187">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D187">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E187">
         <v>0</v>
@@ -12661,7 +12661,7 @@
         <v>0</v>
       </c>
       <c r="H187">
-        <v>34</v>
+        <v>145</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>427</v>
@@ -12693,25 +12693,25 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.02857142857142857</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C188">
         <v>1</v>
       </c>
       <c r="D188">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E188">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F188">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G188" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H188">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>428</v>
@@ -12743,13 +12743,13 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.02684563758389262</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C189">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D189">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E189">
         <v>0</v>
@@ -12761,10 +12761,10 @@
         <v>0</v>
       </c>
       <c r="H189">
-        <v>145</v>
+        <v>38</v>
       </c>
       <c r="J189" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K189">
         <v>0.1666666666666667</v>
@@ -12793,25 +12793,25 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.02631578947368421</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C190">
         <v>1</v>
       </c>
       <c r="D190">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E190">
-        <v>0.75</v>
+        <v>0.89</v>
       </c>
       <c r="F190">
-        <v>0.25</v>
+        <v>0.11</v>
       </c>
       <c r="G190" t="b">
         <v>1</v>
       </c>
       <c r="H190">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>429</v>
@@ -12843,25 +12843,25 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.02564102564102564</v>
+        <v>0.02531645569620253</v>
       </c>
       <c r="C191">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D191">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E191">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F191">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="G191" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H191">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>430</v>
@@ -12893,25 +12893,25 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.02564102564102564</v>
+        <v>0.025</v>
       </c>
       <c r="C192">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D192">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E192">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="F192">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="G192" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H192">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>431</v>
@@ -12943,25 +12943,25 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.02531645569620253</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="C193">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D193">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E193">
-        <v>0.6</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F193">
-        <v>0.4</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G193" t="b">
         <v>1</v>
       </c>
       <c r="H193">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>432</v>
@@ -12993,25 +12993,25 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.025</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="C194">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D194">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E194">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F194">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G194" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H194">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>433</v>
@@ -13049,13 +13049,13 @@
         <v>1</v>
       </c>
       <c r="D195">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E195">
-        <v>0.9399999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="F195">
-        <v>0.06000000000000005</v>
+        <v>0.2</v>
       </c>
       <c r="G195" t="b">
         <v>1</v>
@@ -13099,13 +13099,13 @@
         <v>1</v>
       </c>
       <c r="D196">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E196">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F196">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G196" t="b">
         <v>1</v>
@@ -13143,25 +13143,25 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.02439024390243903</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="C197">
         <v>1</v>
       </c>
       <c r="D197">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E197">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="F197">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="G197" t="b">
         <v>1</v>
       </c>
       <c r="H197">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>436</v>
@@ -13193,7 +13193,7 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.02439024390243903</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="C198">
         <v>1</v>
@@ -13211,7 +13211,7 @@
         <v>1</v>
       </c>
       <c r="H198">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>437</v>
@@ -13243,25 +13243,25 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.02325581395348837</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C199">
         <v>1</v>
       </c>
       <c r="D199">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E199">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F199">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G199" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H199">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>438</v>
@@ -13293,25 +13293,25 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.02272727272727273</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="C200">
         <v>1</v>
       </c>
       <c r="D200">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E200">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F200">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G200" t="b">
         <v>1</v>
       </c>
       <c r="H200">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>439</v>
@@ -13343,25 +13343,25 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.02222222222222222</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="C201">
         <v>1</v>
       </c>
       <c r="D201">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E201">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F201">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H201">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>440</v>
@@ -13393,25 +13393,25 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.02173913043478261</v>
+        <v>0.02105263157894737</v>
       </c>
       <c r="C202">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D202">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E202">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F202">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G202" t="b">
         <v>1</v>
       </c>
       <c r="H202">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>441</v>
@@ -13443,25 +13443,25 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.02127659574468085</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="C203">
         <v>1</v>
       </c>
       <c r="D203">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E203">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F203">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G203" t="b">
         <v>1</v>
       </c>
       <c r="H203">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>442</v>
@@ -13493,25 +13493,25 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.02105263157894737</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="C204">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D204">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E204">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F204">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G204" t="b">
         <v>1</v>
       </c>
       <c r="H204">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>443</v>
@@ -13543,25 +13543,25 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.02040816326530612</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="C205">
         <v>1</v>
       </c>
       <c r="D205">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E205">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="F205">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="G205" t="b">
         <v>1</v>
       </c>
       <c r="H205">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>444</v>
@@ -13593,25 +13593,25 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.02040816326530612</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="C206">
         <v>1</v>
       </c>
       <c r="D206">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E206">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="F206">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="G206" t="b">
         <v>1</v>
       </c>
       <c r="H206">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>445</v>
@@ -13643,28 +13643,28 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.01923076923076923</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="C207">
         <v>1</v>
       </c>
       <c r="D207">
-        <v>6</v>
+        <v>89</v>
       </c>
       <c r="E207">
-        <v>0.83</v>
+        <v>0.99</v>
       </c>
       <c r="F207">
-        <v>0.17</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G207" t="b">
         <v>1</v>
       </c>
       <c r="H207">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J207" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K207">
         <v>0.1612903225806452</v>
@@ -13693,25 +13693,25 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.01886792452830189</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="C208">
         <v>1</v>
       </c>
       <c r="D208">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E208">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="F208">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="G208" t="b">
         <v>1</v>
       </c>
       <c r="H208">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>446</v>
@@ -13743,25 +13743,25 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.01851851851851852</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="C209">
         <v>1</v>
       </c>
       <c r="D209">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="E209">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="F209">
-        <v>0.01000000000000001</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G209" t="b">
         <v>1</v>
       </c>
       <c r="H209">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>447</v>
@@ -13799,16 +13799,16 @@
         <v>1</v>
       </c>
       <c r="D210">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E210">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F210">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G210" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H210">
         <v>54</v>
@@ -13843,25 +13843,25 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.01818181818181818</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="C211">
         <v>1</v>
       </c>
       <c r="D211">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E211">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F211">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G211" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H211">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>449</v>
@@ -13893,25 +13893,25 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.01818181818181818</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="C212">
         <v>1</v>
       </c>
       <c r="D212">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E212">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F212">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G212" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H212">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>450</v>
@@ -13943,25 +13943,25 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.01785714285714286</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="C213">
         <v>1</v>
       </c>
       <c r="D213">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E213">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F213">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G213" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H213">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>451</v>
@@ -13993,28 +13993,28 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.01785714285714286</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="C214">
         <v>1</v>
       </c>
       <c r="D214">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E214">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F214">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G214" t="b">
         <v>1</v>
       </c>
       <c r="H214">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J214" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K214">
         <v>0.1538461538461539</v>
@@ -14043,28 +14043,28 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.01754385964912281</v>
+        <v>0.0170940170940171</v>
       </c>
       <c r="C215">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D215">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="E215">
-        <v>0.67</v>
+        <v>0.91</v>
       </c>
       <c r="F215">
-        <v>0.33</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G215" t="b">
         <v>1</v>
       </c>
       <c r="H215">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="J215" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K215">
         <v>0.1538461538461539</v>
@@ -14093,25 +14093,25 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.01724137931034483</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="C216">
         <v>1</v>
       </c>
       <c r="D216">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E216">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F216">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G216" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H216">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>452</v>
@@ -14143,25 +14143,25 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.0170940170940171</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="C217">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D217">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="E217">
-        <v>0.91</v>
+        <v>0.8</v>
       </c>
       <c r="F217">
-        <v>0.08999999999999997</v>
+        <v>0.2</v>
       </c>
       <c r="G217" t="b">
         <v>1</v>
       </c>
       <c r="H217">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>453</v>
@@ -14193,25 +14193,25 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.01694915254237288</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="C218">
         <v>1</v>
       </c>
       <c r="D218">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E218">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F218">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G218" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H218">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>454</v>
@@ -14243,25 +14243,25 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.01694915254237288</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="C219">
         <v>1</v>
       </c>
       <c r="D219">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E219">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
       <c r="F219">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>455</v>
@@ -14293,25 +14293,25 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.01666666666666667</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="C220">
         <v>1</v>
       </c>
       <c r="D220">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E220">
-        <v>0.92</v>
+        <v>0.8</v>
       </c>
       <c r="F220">
-        <v>0.07999999999999996</v>
+        <v>0.2</v>
       </c>
       <c r="G220" t="b">
         <v>1</v>
       </c>
       <c r="H220">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>456</v>
@@ -14343,25 +14343,25 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.01666666666666667</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="C221">
         <v>1</v>
       </c>
       <c r="D221">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E221">
-        <v>0.86</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F221">
-        <v>0.14</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G221" t="b">
         <v>1</v>
       </c>
       <c r="H221">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>457</v>
@@ -14393,25 +14393,25 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.01612903225806452</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="C222">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D222">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="E222">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="F222">
-        <v>0.2</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G222" t="b">
         <v>1</v>
       </c>
       <c r="H222">
-        <v>61</v>
+        <v>186</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>458</v>
@@ -14443,28 +14443,28 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.01612903225806452</v>
+        <v>0.01550387596899225</v>
       </c>
       <c r="C223">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D223">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E223">
-        <v>0.9399999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="F223">
-        <v>0.06000000000000005</v>
+        <v>0.2</v>
       </c>
       <c r="G223" t="b">
         <v>1</v>
       </c>
       <c r="H223">
-        <v>61</v>
+        <v>127</v>
       </c>
       <c r="J223" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K223">
         <v>0.148936170212766</v>
@@ -14493,28 +14493,28 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.01587301587301587</v>
+        <v>0.01547987616099071</v>
       </c>
       <c r="C224">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D224">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="E224">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="F224">
-        <v>0.09999999999999998</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G224" t="b">
         <v>1</v>
       </c>
       <c r="H224">
-        <v>186</v>
+        <v>318</v>
       </c>
       <c r="J224" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K224">
         <v>0.1481481481481481</v>
@@ -14543,25 +14543,25 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.01550387596899225</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="C225">
         <v>2</v>
       </c>
       <c r="D225">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E225">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F225">
-        <v>0.2</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G225" t="b">
         <v>1</v>
       </c>
       <c r="H225">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>459</v>
@@ -14593,28 +14593,28 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.01547987616099071</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="C226">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D226">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="E226">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
       <c r="F226">
-        <v>0.05000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
       </c>
       <c r="H226">
-        <v>318</v>
+        <v>64</v>
       </c>
       <c r="J226" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K226">
         <v>0.1475409836065574</v>
@@ -14643,25 +14643,25 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.01538461538461539</v>
+        <v>0.01492537313432836</v>
       </c>
       <c r="C227">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D227">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="E227">
-        <v>0.9399999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="F227">
-        <v>0.06000000000000005</v>
+        <v>0.17</v>
       </c>
       <c r="G227" t="b">
         <v>1</v>
       </c>
       <c r="H227">
-        <v>128</v>
+        <v>66</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>460</v>
@@ -14693,25 +14693,25 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.01538461538461539</v>
+        <v>0.01492537313432836</v>
       </c>
       <c r="C228">
         <v>1</v>
       </c>
       <c r="D228">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E228">
-        <v>0.5</v>
+        <v>0.92</v>
       </c>
       <c r="F228">
-        <v>0.5</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G228" t="b">
         <v>1</v>
       </c>
       <c r="H228">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>461</v>
@@ -14743,25 +14743,25 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.01492537313432836</v>
+        <v>0.01428571428571429</v>
       </c>
       <c r="C229">
         <v>1</v>
       </c>
       <c r="D229">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E229">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="F229">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="G229" t="b">
         <v>1</v>
       </c>
       <c r="H229">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>462</v>
@@ -14793,28 +14793,28 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.01492537313432836</v>
+        <v>0.01351351351351351</v>
       </c>
       <c r="C230">
         <v>1</v>
       </c>
       <c r="D230">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E230">
-        <v>0.92</v>
+        <v>0.67</v>
       </c>
       <c r="F230">
-        <v>0.07999999999999996</v>
+        <v>0.33</v>
       </c>
       <c r="G230" t="b">
         <v>1</v>
       </c>
       <c r="H230">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J230" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K230">
         <v>0.1440677966101695</v>
@@ -14843,7 +14843,7 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.01428571428571429</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="C231">
         <v>1</v>
@@ -14861,7 +14861,7 @@
         <v>1</v>
       </c>
       <c r="H231">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>463</v>
@@ -14893,7 +14893,7 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.01351351351351351</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="C232">
         <v>1</v>
@@ -14911,7 +14911,7 @@
         <v>1</v>
       </c>
       <c r="H232">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>464</v>
@@ -14943,25 +14943,25 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.0131578947368421</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="C233">
         <v>1</v>
       </c>
       <c r="D233">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E233">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F233">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G233" t="b">
         <v>1</v>
       </c>
       <c r="H233">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>465</v>
@@ -14993,25 +14993,25 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.01298701298701299</v>
+        <v>0.01234567901234568</v>
       </c>
       <c r="C234">
         <v>1</v>
       </c>
       <c r="D234">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E234">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F234">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G234" t="b">
         <v>1</v>
       </c>
       <c r="H234">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>466</v>
@@ -15043,25 +15043,25 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.01265822784810127</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="C235">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D235">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E235">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F235">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G235" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H235">
-        <v>78</v>
+        <v>164</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>467</v>
@@ -15093,25 +15093,25 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.01234567901234568</v>
+        <v>0.0119047619047619</v>
       </c>
       <c r="C236">
         <v>1</v>
       </c>
       <c r="D236">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E236">
-        <v>0.5</v>
+        <v>0.89</v>
       </c>
       <c r="F236">
-        <v>0.5</v>
+        <v>0.11</v>
       </c>
       <c r="G236" t="b">
         <v>1</v>
       </c>
       <c r="H236">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>468</v>
@@ -15143,25 +15143,25 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.01204819277108434</v>
+        <v>0.01176470588235294</v>
       </c>
       <c r="C237">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D237">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E237">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F237">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G237" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H237">
-        <v>164</v>
+        <v>84</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>469</v>
@@ -15193,25 +15193,25 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.0119047619047619</v>
+        <v>0.01136363636363636</v>
       </c>
       <c r="C238">
         <v>1</v>
       </c>
       <c r="D238">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E238">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="F238">
-        <v>0.11</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G238" t="b">
         <v>1</v>
       </c>
       <c r="H238">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>470</v>
@@ -15243,25 +15243,25 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.01176470588235294</v>
+        <v>0.01063829787234043</v>
       </c>
       <c r="C239">
         <v>1</v>
       </c>
       <c r="D239">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E239">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F239">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G239" t="b">
         <v>1</v>
       </c>
       <c r="H239">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>471</v>
@@ -15293,25 +15293,25 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.01136363636363636</v>
+        <v>0.01030927835051546</v>
       </c>
       <c r="C240">
         <v>1</v>
       </c>
       <c r="D240">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E240">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F240">
-        <v>0.07999999999999996</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G240" t="b">
         <v>1</v>
       </c>
       <c r="H240">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>472</v>
@@ -15343,25 +15343,25 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.01063829787234043</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="C241">
         <v>1</v>
       </c>
       <c r="D241">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E241">
-        <v>0.75</v>
+        <v>0.91</v>
       </c>
       <c r="F241">
-        <v>0.25</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G241" t="b">
         <v>1</v>
       </c>
       <c r="H241">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>473</v>
@@ -15393,25 +15393,25 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.01030927835051546</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="C242">
         <v>1</v>
       </c>
       <c r="D242">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E242">
-        <v>0.9399999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="F242">
-        <v>0.06000000000000005</v>
+        <v>0.5</v>
       </c>
       <c r="G242" t="b">
         <v>1</v>
       </c>
       <c r="H242">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>474</v>
@@ -15443,25 +15443,25 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.0101010101010101</v>
+        <v>0.009803921568627451</v>
       </c>
       <c r="C243">
         <v>1</v>
       </c>
       <c r="D243">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E243">
-        <v>0.91</v>
+        <v>0.88</v>
       </c>
       <c r="F243">
-        <v>0.08999999999999997</v>
+        <v>0.12</v>
       </c>
       <c r="G243" t="b">
         <v>1</v>
       </c>
       <c r="H243">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>475</v>
@@ -15493,25 +15493,25 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.0101010101010101</v>
+        <v>0.009803921568627451</v>
       </c>
       <c r="C244">
         <v>1</v>
       </c>
       <c r="D244">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E244">
-        <v>0.5</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F244">
-        <v>0.5</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G244" t="b">
         <v>1</v>
       </c>
       <c r="H244">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>476</v>
@@ -15543,25 +15543,25 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.009803921568627451</v>
+        <v>0.009615384615384616</v>
       </c>
       <c r="C245">
         <v>1</v>
       </c>
       <c r="D245">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E245">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="F245">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="G245" t="b">
         <v>1</v>
       </c>
       <c r="H245">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>477</v>
@@ -15593,25 +15593,25 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.009803921568627451</v>
+        <v>0.009574468085106383</v>
       </c>
       <c r="C246">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D246">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E246">
-        <v>0.9399999999999999</v>
+        <v>0.76</v>
       </c>
       <c r="F246">
-        <v>0.06000000000000005</v>
+        <v>0.24</v>
       </c>
       <c r="G246" t="b">
         <v>1</v>
       </c>
       <c r="H246">
-        <v>101</v>
+        <v>931</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>478</v>
@@ -15643,25 +15643,25 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.009615384615384616</v>
+        <v>0.009259259259259259</v>
       </c>
       <c r="C247">
         <v>1</v>
       </c>
       <c r="D247">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E247">
-        <v>0.8</v>
+        <v>0.96</v>
       </c>
       <c r="F247">
-        <v>0.2</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G247" t="b">
         <v>1</v>
       </c>
       <c r="H247">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>479</v>
@@ -15693,25 +15693,25 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>0.009574468085106383</v>
+        <v>0.009049773755656109</v>
       </c>
       <c r="C248">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D248">
-        <v>37</v>
+        <v>164</v>
       </c>
       <c r="E248">
-        <v>0.76</v>
+        <v>0.99</v>
       </c>
       <c r="F248">
-        <v>0.24</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G248" t="b">
         <v>1</v>
       </c>
       <c r="H248">
-        <v>931</v>
+        <v>219</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>480</v>
@@ -15743,13 +15743,13 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>0.009259259259259259</v>
+        <v>0.009009009009009009</v>
       </c>
       <c r="C249">
         <v>1</v>
       </c>
       <c r="D249">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E249">
         <v>0.96</v>
@@ -15761,7 +15761,7 @@
         <v>1</v>
       </c>
       <c r="H249">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>481</v>
@@ -15793,25 +15793,25 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>0.009049773755656109</v>
+        <v>0.008928571428571428</v>
       </c>
       <c r="C250">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D250">
-        <v>164</v>
+        <v>16</v>
       </c>
       <c r="E250">
-        <v>0.99</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F250">
-        <v>0.01000000000000001</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G250" t="b">
         <v>1</v>
       </c>
       <c r="H250">
-        <v>219</v>
+        <v>111</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>482</v>
@@ -15843,25 +15843,25 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>0.009009009009009009</v>
+        <v>0.008620689655172414</v>
       </c>
       <c r="C251">
         <v>1</v>
       </c>
       <c r="D251">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E251">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="F251">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G251" t="b">
         <v>1</v>
       </c>
       <c r="H251">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>483</v>
@@ -15893,25 +15893,25 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>0.008928571428571428</v>
+        <v>0.008517887563884156</v>
       </c>
       <c r="C252">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D252">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="E252">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F252">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G252" t="b">
         <v>1</v>
       </c>
       <c r="H252">
-        <v>111</v>
+        <v>582</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>484</v>
@@ -15943,25 +15943,25 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>0.008620689655172414</v>
+        <v>0.008403361344537815</v>
       </c>
       <c r="C253">
         <v>1</v>
       </c>
       <c r="D253">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E253">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F253">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G253" t="b">
         <v>1</v>
       </c>
       <c r="H253">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>485</v>
@@ -15993,25 +15993,25 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>0.008517887563884156</v>
+        <v>0.008130081300813009</v>
       </c>
       <c r="C254">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D254">
-        <v>68</v>
+        <v>4</v>
       </c>
       <c r="E254">
-        <v>0.93</v>
+        <v>0.75</v>
       </c>
       <c r="F254">
-        <v>0.06999999999999995</v>
+        <v>0.25</v>
       </c>
       <c r="G254" t="b">
         <v>1</v>
       </c>
       <c r="H254">
-        <v>582</v>
+        <v>122</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>486</v>
@@ -16043,25 +16043,25 @@
         <v>260</v>
       </c>
       <c r="B255">
-        <v>0.008403361344537815</v>
+        <v>0.008064516129032258</v>
       </c>
       <c r="C255">
         <v>1</v>
       </c>
       <c r="D255">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E255">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F255">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G255" t="b">
         <v>1</v>
       </c>
       <c r="H255">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>487</v>
@@ -16093,25 +16093,25 @@
         <v>261</v>
       </c>
       <c r="B256">
-        <v>0.008130081300813009</v>
+        <v>0.007936507936507936</v>
       </c>
       <c r="C256">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D256">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E256">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F256">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G256" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H256">
-        <v>122</v>
+        <v>250</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>488</v>
@@ -16143,25 +16143,25 @@
         <v>262</v>
       </c>
       <c r="B257">
-        <v>0.008064516129032258</v>
+        <v>0.007874015748031496</v>
       </c>
       <c r="C257">
         <v>1</v>
       </c>
       <c r="D257">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E257">
-        <v>0.93</v>
+        <v>0.5</v>
       </c>
       <c r="F257">
-        <v>0.06999999999999995</v>
+        <v>0.5</v>
       </c>
       <c r="G257" t="b">
         <v>1</v>
       </c>
       <c r="H257">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="J257" s="1" t="s">
         <v>489</v>
@@ -16193,25 +16193,25 @@
         <v>263</v>
       </c>
       <c r="B258">
-        <v>0.007936507936507936</v>
+        <v>0.0078125</v>
       </c>
       <c r="C258">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D258">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="E258">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F258">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G258" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H258">
-        <v>250</v>
+        <v>127</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>490</v>
@@ -16243,25 +16243,25 @@
         <v>264</v>
       </c>
       <c r="B259">
-        <v>0.007874015748031496</v>
+        <v>0.007751937984496124</v>
       </c>
       <c r="C259">
         <v>1</v>
       </c>
       <c r="D259">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E259">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="F259">
-        <v>0.5</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G259" t="b">
         <v>1</v>
       </c>
       <c r="H259">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>491</v>
@@ -16293,25 +16293,25 @@
         <v>265</v>
       </c>
       <c r="B260">
-        <v>0.0078125</v>
+        <v>0.007518796992481203</v>
       </c>
       <c r="C260">
         <v>1</v>
       </c>
       <c r="D260">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="E260">
-        <v>0.97</v>
+        <v>0.8</v>
       </c>
       <c r="F260">
-        <v>0.03000000000000003</v>
+        <v>0.2</v>
       </c>
       <c r="G260" t="b">
         <v>1</v>
       </c>
       <c r="H260">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="J260" s="1" t="s">
         <v>492</v>
@@ -16343,28 +16343,28 @@
         <v>266</v>
       </c>
       <c r="B261">
-        <v>0.007751937984496124</v>
+        <v>0.007352941176470588</v>
       </c>
       <c r="C261">
         <v>1</v>
       </c>
       <c r="D261">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E261">
-        <v>0.95</v>
+        <v>0.67</v>
       </c>
       <c r="F261">
-        <v>0.05000000000000004</v>
+        <v>0.33</v>
       </c>
       <c r="G261" t="b">
         <v>1</v>
       </c>
       <c r="H261">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="J261" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K261">
         <v>0.1376811594202899</v>
@@ -16393,25 +16393,25 @@
         <v>267</v>
       </c>
       <c r="B262">
-        <v>0.007518796992481203</v>
+        <v>0.006622516556291391</v>
       </c>
       <c r="C262">
         <v>1</v>
       </c>
       <c r="D262">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E262">
-        <v>0.8</v>
+        <v>0.93</v>
       </c>
       <c r="F262">
-        <v>0.2</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G262" t="b">
         <v>1</v>
       </c>
       <c r="H262">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="J262" s="1" t="s">
         <v>493</v>
@@ -16443,25 +16443,25 @@
         <v>268</v>
       </c>
       <c r="B263">
-        <v>0.007352941176470588</v>
+        <v>0.006535947712418301</v>
       </c>
       <c r="C263">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D263">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="E263">
-        <v>0.67</v>
+        <v>0.96</v>
       </c>
       <c r="F263">
-        <v>0.33</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G263" t="b">
         <v>1</v>
       </c>
       <c r="H263">
-        <v>135</v>
+        <v>304</v>
       </c>
       <c r="J263" s="1" t="s">
         <v>494</v>
@@ -16493,28 +16493,28 @@
         <v>269</v>
       </c>
       <c r="B264">
-        <v>0.006622516556291391</v>
+        <v>0.006329113924050633</v>
       </c>
       <c r="C264">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D264">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="E264">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="F264">
-        <v>0.06999999999999995</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G264" t="b">
         <v>1</v>
       </c>
       <c r="H264">
-        <v>150</v>
+        <v>785</v>
       </c>
       <c r="J264" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K264">
         <v>0.1351351351351351</v>
@@ -16543,13 +16543,13 @@
         <v>270</v>
       </c>
       <c r="B265">
-        <v>0.006535947712418301</v>
+        <v>0.006211180124223602</v>
       </c>
       <c r="C265">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D265">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E265">
         <v>0.96</v>
@@ -16561,7 +16561,7 @@
         <v>1</v>
       </c>
       <c r="H265">
-        <v>304</v>
+        <v>160</v>
       </c>
       <c r="J265" s="1" t="s">
         <v>495</v>
@@ -16593,25 +16593,25 @@
         <v>271</v>
       </c>
       <c r="B266">
-        <v>0.006329113924050633</v>
+        <v>0.006172839506172839</v>
       </c>
       <c r="C266">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D266">
-        <v>109</v>
+        <v>11</v>
       </c>
       <c r="E266">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="F266">
-        <v>0.05000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G266" t="b">
         <v>1</v>
       </c>
       <c r="H266">
-        <v>785</v>
+        <v>161</v>
       </c>
       <c r="J266" s="1" t="s">
         <v>496</v>
@@ -16643,25 +16643,25 @@
         <v>272</v>
       </c>
       <c r="B267">
-        <v>0.006211180124223602</v>
+        <v>0.005802707930367505</v>
       </c>
       <c r="C267">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D267">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="E267">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F267">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G267" t="b">
         <v>1</v>
       </c>
       <c r="H267">
-        <v>160</v>
+        <v>514</v>
       </c>
       <c r="J267" s="1" t="s">
         <v>497</v>
@@ -16693,25 +16693,25 @@
         <v>273</v>
       </c>
       <c r="B268">
-        <v>0.006172839506172839</v>
+        <v>0.005736137667304016</v>
       </c>
       <c r="C268">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D268">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E268">
-        <v>0.91</v>
+        <v>0.88</v>
       </c>
       <c r="F268">
-        <v>0.08999999999999997</v>
+        <v>0.12</v>
       </c>
       <c r="G268" t="b">
         <v>1</v>
       </c>
       <c r="H268">
-        <v>161</v>
+        <v>520</v>
       </c>
       <c r="J268" s="1" t="s">
         <v>498</v>
@@ -16743,25 +16743,25 @@
         <v>274</v>
       </c>
       <c r="B269">
-        <v>0.005802707930367505</v>
+        <v>0.005571030640668524</v>
       </c>
       <c r="C269">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D269">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E269">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F269">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G269" t="b">
         <v>1</v>
       </c>
       <c r="H269">
-        <v>514</v>
+        <v>357</v>
       </c>
       <c r="J269" s="1" t="s">
         <v>87</v>
@@ -16793,25 +16793,25 @@
         <v>275</v>
       </c>
       <c r="B270">
-        <v>0.005736137667304016</v>
+        <v>0.00546448087431694</v>
       </c>
       <c r="C270">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D270">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="E270">
-        <v>0.88</v>
+        <v>0.75</v>
       </c>
       <c r="F270">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
       <c r="G270" t="b">
         <v>1</v>
       </c>
       <c r="H270">
-        <v>520</v>
+        <v>182</v>
       </c>
       <c r="J270" s="1" t="s">
         <v>499</v>
@@ -16843,28 +16843,28 @@
         <v>276</v>
       </c>
       <c r="B271">
-        <v>0.005571030640668524</v>
+        <v>0.005413208228076507</v>
       </c>
       <c r="C271">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D271">
-        <v>59</v>
+        <v>351</v>
       </c>
       <c r="E271">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F271">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G271" t="b">
         <v>1</v>
       </c>
       <c r="H271">
-        <v>357</v>
+        <v>2756</v>
       </c>
       <c r="J271" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K271">
         <v>0.1313559322033898</v>
@@ -16893,28 +16893,28 @@
         <v>277</v>
       </c>
       <c r="B272">
-        <v>0.00546448087431694</v>
+        <v>0.005213764337851929</v>
       </c>
       <c r="C272">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D272">
-        <v>4</v>
+        <v>235</v>
       </c>
       <c r="E272">
-        <v>0.75</v>
+        <v>0.96</v>
       </c>
       <c r="F272">
-        <v>0.25</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G272" t="b">
         <v>1</v>
       </c>
       <c r="H272">
-        <v>182</v>
+        <v>1908</v>
       </c>
       <c r="J272" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K272">
         <v>0.1304347826086956</v>
@@ -16943,28 +16943,28 @@
         <v>278</v>
       </c>
       <c r="B273">
-        <v>0.005413208228076507</v>
+        <v>0.005082592121982211</v>
       </c>
       <c r="C273">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D273">
-        <v>351</v>
+        <v>84</v>
       </c>
       <c r="E273">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F273">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G273" t="b">
         <v>1</v>
       </c>
       <c r="H273">
-        <v>2756</v>
+        <v>783</v>
       </c>
       <c r="J273" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K273">
         <v>0.1304347826086956</v>
@@ -16993,13 +16993,13 @@
         <v>279</v>
       </c>
       <c r="B274">
-        <v>0.005213764337851929</v>
+        <v>0.005</v>
       </c>
       <c r="C274">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D274">
-        <v>235</v>
+        <v>105</v>
       </c>
       <c r="E274">
         <v>0.96</v>
@@ -17011,7 +17011,7 @@
         <v>1</v>
       </c>
       <c r="H274">
-        <v>1908</v>
+        <v>796</v>
       </c>
       <c r="J274" s="1" t="s">
         <v>500</v>
@@ -17043,25 +17043,25 @@
         <v>280</v>
       </c>
       <c r="B275">
-        <v>0.005082592121982211</v>
+        <v>0.004854368932038835</v>
       </c>
       <c r="C275">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D275">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="E275">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="F275">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G275" t="b">
         <v>1</v>
       </c>
       <c r="H275">
-        <v>783</v>
+        <v>205</v>
       </c>
       <c r="J275" s="1" t="s">
         <v>501</v>
@@ -17093,25 +17093,25 @@
         <v>281</v>
       </c>
       <c r="B276">
-        <v>0.005</v>
+        <v>0.004672897196261682</v>
       </c>
       <c r="C276">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D276">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="E276">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="F276">
-        <v>0.04000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G276" t="b">
         <v>1</v>
       </c>
       <c r="H276">
-        <v>796</v>
+        <v>213</v>
       </c>
       <c r="J276" s="1" t="s">
         <v>502</v>
@@ -17143,25 +17143,25 @@
         <v>282</v>
       </c>
       <c r="B277">
-        <v>0.004854368932038835</v>
+        <v>0.004545454545454545</v>
       </c>
       <c r="C277">
         <v>1</v>
       </c>
       <c r="D277">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="E277">
-        <v>0.97</v>
+        <v>0.88</v>
       </c>
       <c r="F277">
-        <v>0.03000000000000003</v>
+        <v>0.12</v>
       </c>
       <c r="G277" t="b">
         <v>1</v>
       </c>
       <c r="H277">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="J277" s="1" t="s">
         <v>503</v>
@@ -17193,25 +17193,25 @@
         <v>283</v>
       </c>
       <c r="B278">
-        <v>0.004672897196261682</v>
+        <v>0.003623188405797101</v>
       </c>
       <c r="C278">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D278">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="E278">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="F278">
-        <v>0.07999999999999996</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G278" t="b">
         <v>1</v>
       </c>
       <c r="H278">
-        <v>213</v>
+        <v>1100</v>
       </c>
       <c r="J278" s="1" t="s">
         <v>504</v>
@@ -17243,25 +17243,25 @@
         <v>284</v>
       </c>
       <c r="B279">
-        <v>0.004545454545454545</v>
+        <v>0.00352112676056338</v>
       </c>
       <c r="C279">
         <v>1</v>
       </c>
       <c r="D279">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E279">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
       <c r="F279">
-        <v>0.12</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G279" t="b">
         <v>1</v>
       </c>
       <c r="H279">
-        <v>219</v>
+        <v>283</v>
       </c>
       <c r="J279" s="1" t="s">
         <v>505</v>
@@ -17293,25 +17293,25 @@
         <v>285</v>
       </c>
       <c r="B280">
-        <v>0.003623188405797101</v>
+        <v>0.003436426116838488</v>
       </c>
       <c r="C280">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D280">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="E280">
-        <v>0.93</v>
+        <v>0.67</v>
       </c>
       <c r="F280">
-        <v>0.06999999999999995</v>
+        <v>0.33</v>
       </c>
       <c r="G280" t="b">
         <v>1</v>
       </c>
       <c r="H280">
-        <v>1100</v>
+        <v>290</v>
       </c>
       <c r="J280" s="1" t="s">
         <v>506</v>
@@ -17343,25 +17343,25 @@
         <v>286</v>
       </c>
       <c r="B281">
-        <v>0.00352112676056338</v>
+        <v>0.003424657534246575</v>
       </c>
       <c r="C281">
         <v>1</v>
       </c>
       <c r="D281">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E281">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F281">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G281" t="b">
         <v>1</v>
       </c>
       <c r="H281">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="J281" s="1" t="s">
         <v>507</v>
@@ -17393,25 +17393,25 @@
         <v>287</v>
       </c>
       <c r="B282">
-        <v>0.003436426116838488</v>
+        <v>0.003401360544217687</v>
       </c>
       <c r="C282">
         <v>1</v>
       </c>
       <c r="D282">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E282">
-        <v>0.67</v>
+        <v>0.92</v>
       </c>
       <c r="F282">
-        <v>0.33</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G282" t="b">
         <v>1</v>
       </c>
       <c r="H282">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="J282" s="1" t="s">
         <v>508</v>
@@ -17443,25 +17443,25 @@
         <v>288</v>
       </c>
       <c r="B283">
-        <v>0.003424657534246575</v>
+        <v>0.003327787021630616</v>
       </c>
       <c r="C283">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D283">
-        <v>36</v>
+        <v>206</v>
       </c>
       <c r="E283">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="F283">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G283" t="b">
         <v>1</v>
       </c>
       <c r="H283">
-        <v>291</v>
+        <v>2995</v>
       </c>
       <c r="J283" s="1" t="s">
         <v>509</v>
@@ -17493,13 +17493,13 @@
         <v>289</v>
       </c>
       <c r="B284">
-        <v>0.003401360544217687</v>
+        <v>0.002865329512893983</v>
       </c>
       <c r="C284">
         <v>1</v>
       </c>
       <c r="D284">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E284">
         <v>0.92</v>
@@ -17511,7 +17511,7 @@
         <v>1</v>
       </c>
       <c r="H284">
-        <v>293</v>
+        <v>348</v>
       </c>
       <c r="J284" s="1" t="s">
         <v>510</v>
@@ -17543,25 +17543,25 @@
         <v>290</v>
       </c>
       <c r="B285">
-        <v>0.003327787021630616</v>
+        <v>0.002680965147453083</v>
       </c>
       <c r="C285">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D285">
-        <v>206</v>
+        <v>1</v>
       </c>
       <c r="E285">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F285">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G285" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H285">
-        <v>2995</v>
+        <v>372</v>
       </c>
       <c r="J285" s="1" t="s">
         <v>511</v>
@@ -17589,30 +17589,6 @@
       </c>
     </row>
     <row r="286" spans="1:17">
-      <c r="A286" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B286">
-        <v>0.002865329512893983</v>
-      </c>
-      <c r="C286">
-        <v>1</v>
-      </c>
-      <c r="D286">
-        <v>12</v>
-      </c>
-      <c r="E286">
-        <v>0.92</v>
-      </c>
-      <c r="F286">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="G286" t="b">
-        <v>1</v>
-      </c>
-      <c r="H286">
-        <v>348</v>
-      </c>
       <c r="J286" s="1" t="s">
         <v>512</v>
       </c>
@@ -17639,30 +17615,6 @@
       </c>
     </row>
     <row r="287" spans="1:17">
-      <c r="A287" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B287">
-        <v>0.002680965147453083</v>
-      </c>
-      <c r="C287">
-        <v>1</v>
-      </c>
-      <c r="D287">
-        <v>1</v>
-      </c>
-      <c r="E287">
-        <v>0</v>
-      </c>
-      <c r="F287">
-        <v>1</v>
-      </c>
-      <c r="G287" t="b">
-        <v>0</v>
-      </c>
-      <c r="H287">
-        <v>372</v>
-      </c>
       <c r="J287" s="1" t="s">
         <v>513</v>
       </c>
@@ -18288,7 +18240,7 @@
     </row>
     <row r="311" spans="10:17">
       <c r="J311" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K311">
         <v>0.1239193083573487</v>
@@ -18314,7 +18266,7 @@
     </row>
     <row r="312" spans="10:17">
       <c r="J312" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K312">
         <v>0.1232876712328767</v>
@@ -18340,7 +18292,7 @@
     </row>
     <row r="313" spans="10:17">
       <c r="J313" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K313">
         <v>0.1226415094339623</v>
@@ -18392,7 +18344,7 @@
     </row>
     <row r="315" spans="10:17">
       <c r="J315" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K315">
         <v>0.119047619047619</v>
@@ -18704,7 +18656,7 @@
     </row>
     <row r="327" spans="10:17">
       <c r="J327" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K327">
         <v>0.1169853768278965</v>
@@ -18730,7 +18682,7 @@
     </row>
     <row r="328" spans="10:17">
       <c r="J328" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K328">
         <v>0.1153846153846154</v>
@@ -18912,7 +18864,7 @@
     </row>
     <row r="335" spans="10:17">
       <c r="J335" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K335">
         <v>0.112781954887218</v>
@@ -18938,7 +18890,7 @@
     </row>
     <row r="336" spans="10:17">
       <c r="J336" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K336">
         <v>0.1125975473801561</v>
@@ -18964,7 +18916,7 @@
     </row>
     <row r="337" spans="10:17">
       <c r="J337" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K337">
         <v>0.1122448979591837</v>
@@ -19666,7 +19618,7 @@
     </row>
     <row r="364" spans="10:17">
       <c r="J364" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K364">
         <v>0.1086675291073739</v>
@@ -19692,7 +19644,7 @@
     </row>
     <row r="365" spans="10:17">
       <c r="J365" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K365">
         <v>0.1073619631901841</v>
@@ -19770,7 +19722,7 @@
     </row>
     <row r="368" spans="10:17">
       <c r="J368" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K368">
         <v>0.1063829787234043</v>
@@ -19796,7 +19748,7 @@
     </row>
     <row r="369" spans="10:17">
       <c r="J369" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K369">
         <v>0.1054852320675106</v>
@@ -19926,7 +19878,7 @@
     </row>
     <row r="374" spans="10:17">
       <c r="J374" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K374">
         <v>0.1052631578947368</v>
@@ -20056,7 +20008,7 @@
     </row>
     <row r="379" spans="10:17">
       <c r="J379" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K379">
         <v>0.1021897810218978</v>
@@ -20108,7 +20060,7 @@
     </row>
     <row r="381" spans="10:17">
       <c r="J381" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K381">
         <v>0.1015625</v>
@@ -20836,7 +20788,7 @@
     </row>
     <row r="409" spans="10:17">
       <c r="J409" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K409">
         <v>0.09767441860465116</v>
@@ -20914,7 +20866,7 @@
     </row>
     <row r="412" spans="10:17">
       <c r="J412" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K412">
         <v>0.09523809523809523</v>
@@ -21122,7 +21074,7 @@
     </row>
     <row r="420" spans="10:17">
       <c r="J420" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K420">
         <v>0.09523809523809523</v>
@@ -21226,7 +21178,7 @@
     </row>
     <row r="424" spans="10:17">
       <c r="J424" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K424">
         <v>0.09269988412514485</v>
@@ -21252,7 +21204,7 @@
     </row>
     <row r="425" spans="10:17">
       <c r="J425" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K425">
         <v>0.09259259259259259</v>
@@ -21278,7 +21230,7 @@
     </row>
     <row r="426" spans="10:17">
       <c r="J426" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K426">
         <v>0.09230769230769231</v>
@@ -21538,7 +21490,7 @@
     </row>
     <row r="436" spans="10:17">
       <c r="J436" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K436">
         <v>0.09090909090909091</v>
@@ -21954,7 +21906,7 @@
     </row>
     <row r="452" spans="10:17">
       <c r="J452" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K452">
         <v>0.08928571428571429</v>
@@ -21980,7 +21932,7 @@
     </row>
     <row r="453" spans="10:17">
       <c r="J453" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K453">
         <v>0.08865248226950355</v>
@@ -22058,7 +22010,7 @@
     </row>
     <row r="456" spans="10:17">
       <c r="J456" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K456">
         <v>0.08791208791208792</v>
@@ -22084,7 +22036,7 @@
     </row>
     <row r="457" spans="10:17">
       <c r="J457" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K457">
         <v>0.08771929824561403</v>
@@ -22942,7 +22894,7 @@
     </row>
     <row r="490" spans="10:17">
       <c r="J490" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K490">
         <v>0.08163265306122448</v>
@@ -23150,7 +23102,7 @@
     </row>
     <row r="498" spans="10:17">
       <c r="J498" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K498">
         <v>0.08</v>
@@ -23202,7 +23154,7 @@
     </row>
     <row r="500" spans="10:17">
       <c r="J500" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K500">
         <v>0.07975460122699386</v>
@@ -23306,7 +23258,7 @@
     </row>
     <row r="504" spans="10:17">
       <c r="J504" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K504">
         <v>0.07817589576547231</v>
@@ -23410,7 +23362,7 @@
     </row>
     <row r="508" spans="10:17">
       <c r="J508" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K508">
         <v>0.07692307692307693</v>
@@ -23488,7 +23440,7 @@
     </row>
     <row r="511" spans="10:17">
       <c r="J511" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K511">
         <v>0.07692307692307693</v>
@@ -23826,7 +23778,7 @@
     </row>
     <row r="524" spans="10:17">
       <c r="J524" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K524">
         <v>0.075</v>
@@ -24060,7 +24012,7 @@
     </row>
     <row r="533" spans="10:17">
       <c r="J533" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K533">
         <v>0.07142857142857142</v>
@@ -24606,7 +24558,7 @@
     </row>
     <row r="554" spans="10:17">
       <c r="J554" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K554">
         <v>0.07042253521126761</v>
@@ -25438,7 +25390,7 @@
     </row>
     <row r="586" spans="10:17">
       <c r="J586" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K586">
         <v>0.06481481481481481</v>
@@ -25490,7 +25442,7 @@
     </row>
     <row r="588" spans="10:17">
       <c r="J588" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K588">
         <v>0.06451612903225806</v>
@@ -25542,7 +25494,7 @@
     </row>
     <row r="590" spans="10:17">
       <c r="J590" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K590">
         <v>0.06451612903225806</v>
@@ -26036,7 +25988,7 @@
     </row>
     <row r="609" spans="10:17">
       <c r="J609" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K609">
         <v>0.06153846153846154</v>
@@ -26088,7 +26040,7 @@
     </row>
     <row r="611" spans="10:17">
       <c r="J611" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K611">
         <v>0.06142275148856158</v>
@@ -26114,7 +26066,7 @@
     </row>
     <row r="612" spans="10:17">
       <c r="J612" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K612">
         <v>0.06060606060606061</v>
@@ -26270,7 +26222,7 @@
     </row>
     <row r="618" spans="10:17">
       <c r="J618" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K618">
         <v>0.05925925925925926</v>
@@ -26296,7 +26248,7 @@
     </row>
     <row r="619" spans="10:17">
       <c r="J619" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K619">
         <v>0.05882352941176471</v>
@@ -26530,7 +26482,7 @@
     </row>
     <row r="628" spans="10:17">
       <c r="J628" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K628">
         <v>0.05847953216374269</v>
@@ -26816,7 +26768,7 @@
     </row>
     <row r="639" spans="10:17">
       <c r="J639" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K639">
         <v>0.0547945205479452</v>
@@ -27310,7 +27262,7 @@
     </row>
     <row r="658" spans="10:17">
       <c r="J658" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K658">
         <v>0.05172413793103448</v>
@@ -27414,7 +27366,7 @@
     </row>
     <row r="662" spans="10:17">
       <c r="J662" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K662">
         <v>0.05063291139240506</v>
@@ -27804,7 +27756,7 @@
     </row>
     <row r="677" spans="10:17">
       <c r="J677" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K677">
         <v>0.04926534140017286</v>
@@ -27830,7 +27782,7 @@
     </row>
     <row r="678" spans="10:17">
       <c r="J678" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K678">
         <v>0.04910714285714286</v>
@@ -28012,7 +27964,7 @@
     </row>
     <row r="685" spans="10:17">
       <c r="J685" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K685">
         <v>0.04761904761904762</v>
@@ -28272,7 +28224,7 @@
     </row>
     <row r="695" spans="10:17">
       <c r="J695" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K695">
         <v>0.04545454545454546</v>
@@ -28818,7 +28770,7 @@
     </row>
     <row r="716" spans="10:17">
       <c r="J716" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K716">
         <v>0.04347826086956522</v>
@@ -29000,7 +28952,7 @@
     </row>
     <row r="723" spans="10:17">
       <c r="J723" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K723">
         <v>0.04059040590405904</v>
@@ -29182,7 +29134,7 @@
     </row>
     <row r="730" spans="10:17">
       <c r="J730" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K730">
         <v>0.03934426229508197</v>
@@ -29338,7 +29290,7 @@
     </row>
     <row r="736" spans="10:17">
       <c r="J736" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K736">
         <v>0.0375</v>
@@ -29364,7 +29316,7 @@
     </row>
     <row r="737" spans="10:17">
       <c r="J737" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K737">
         <v>0.03738317757009346</v>
@@ -29390,7 +29342,7 @@
     </row>
     <row r="738" spans="10:17">
       <c r="J738" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K738">
         <v>0.03703703703703703</v>
@@ -29598,7 +29550,7 @@
     </row>
     <row r="746" spans="10:17">
       <c r="J746" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K746">
         <v>0.03703703703703703</v>
@@ -29780,7 +29732,7 @@
     </row>
     <row r="753" spans="10:17">
       <c r="J753" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K753">
         <v>0.03571428571428571</v>
@@ -29988,7 +29940,7 @@
     </row>
     <row r="761" spans="10:17">
       <c r="J761" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K761">
         <v>0.03448275862068965</v>
@@ -30144,7 +30096,7 @@
     </row>
     <row r="767" spans="10:17">
       <c r="J767" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K767">
         <v>0.03333333333333333</v>
@@ -30326,7 +30278,7 @@
     </row>
     <row r="774" spans="10:17">
       <c r="J774" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K774">
         <v>0.03125</v>
@@ -30404,7 +30356,7 @@
     </row>
     <row r="777" spans="10:17">
       <c r="J777" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K777">
         <v>0.03097345132743363</v>
@@ -30456,7 +30408,7 @@
     </row>
     <row r="779" spans="10:17">
       <c r="J779" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K779">
         <v>0.03064066852367688</v>
@@ -30586,7 +30538,7 @@
     </row>
     <row r="784" spans="10:17">
       <c r="J784" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K784">
         <v>0.02941176470588235</v>
@@ -30716,7 +30668,7 @@
     </row>
     <row r="789" spans="10:17">
       <c r="J789" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K789">
         <v>0.0291970802919708</v>
@@ -31002,7 +30954,7 @@
     </row>
     <row r="800" spans="10:17">
       <c r="J800" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K800">
         <v>0.02666666666666667</v>
@@ -31132,7 +31084,7 @@
     </row>
     <row r="805" spans="10:17">
       <c r="J805" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K805">
         <v>0.02564102564102564</v>
@@ -31340,7 +31292,7 @@
     </row>
     <row r="813" spans="10:17">
       <c r="J813" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K813">
         <v>0.02439024390243903</v>
@@ -31418,7 +31370,7 @@
     </row>
     <row r="816" spans="10:17">
       <c r="J816" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K816">
         <v>0.024</v>
@@ -31548,7 +31500,7 @@
     </row>
     <row r="821" spans="10:17">
       <c r="J821" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K821">
         <v>0.02272727272727273</v>
@@ -31626,7 +31578,7 @@
     </row>
     <row r="824" spans="10:17">
       <c r="J824" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K824">
         <v>0.02127659574468085</v>
@@ -31704,7 +31656,7 @@
     </row>
     <row r="827" spans="10:17">
       <c r="J827" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K827">
         <v>0.02040816326530612</v>
@@ -31834,7 +31786,7 @@
     </row>
     <row r="832" spans="10:17">
       <c r="J832" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K832">
         <v>0.01818181818181818</v>
@@ -31938,7 +31890,7 @@
     </row>
     <row r="836" spans="10:17">
       <c r="J836" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K836">
         <v>0.01724137931034483</v>
@@ -31964,7 +31916,7 @@
     </row>
     <row r="837" spans="10:17">
       <c r="J837" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K837">
         <v>0.01621621621621622</v>
@@ -32068,7 +32020,7 @@
     </row>
     <row r="841" spans="10:17">
       <c r="J841" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K841">
         <v>0.01538461538461539</v>
@@ -32094,7 +32046,7 @@
     </row>
     <row r="842" spans="10:17">
       <c r="J842" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K842">
         <v>0.0145985401459854</v>
@@ -32250,7 +32202,7 @@
     </row>
     <row r="848" spans="10:17">
       <c r="J848" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K848">
         <v>0.01234567901234568</v>
@@ -32406,7 +32358,7 @@
     </row>
     <row r="854" spans="10:17">
       <c r="J854" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K854">
         <v>0.0101010101010101</v>
@@ -32510,7 +32462,7 @@
     </row>
     <row r="858" spans="10:17">
       <c r="J858" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K858">
         <v>0.007874015748031496</v>
@@ -32562,7 +32514,7 @@
     </row>
     <row r="860" spans="10:17">
       <c r="J860" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K860">
         <v>0.00684931506849315</v>
